--- a/biology/Médecine/Inhibition_de_l'agglutination/Inhibition_de_l'agglutination.xlsx
+++ b/biology/Médecine/Inhibition_de_l'agglutination/Inhibition_de_l'agglutination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibition_de_l%27agglutination</t>
+          <t>Inhibition_de_l'agglutination</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Inhibition de l'agglutination est une technique d'immuno-hématologie permettant de mettre en évidence un antigène soluble présent dans un liquide biologique, plasma ou sérum, salive, sperme, lait...
 Il peut s'agir soit d'un antigène de groupe sanguin présent sur les globules rouges tests, soit d'un antigène qui y a été fixé, de façon spécifique, immunoglobuline, ou non spécifique.
